--- a/tmp/uploads/FORMULARIO_DE_CADASTRO.xlsx
+++ b/tmp/uploads/FORMULARIO_DE_CADASTRO.xlsx
@@ -112,7 +112,7 @@
     <t>11000000000</t>
   </si>
   <si>
-    <t>TIAGODANTAS1612@GMAIL.COM</t>
+    <t>TIAGODANTAS16@HOTMAIL.COM</t>
   </si>
   <si>
     <t>TDANTAS@MYLENTES.COM.BR</t>
